--- a/deloitte_productivity_project/data/raw_data/international_labour_productivity_G7_2020.xlsx
+++ b/deloitte_productivity_project/data/raw_data/international_labour_productivity_G7_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CodeClan\Project\deloitte_productivity_project\data\raw_data\extract\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CodeClan\Project\deloitte_productivity_project\data\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9C81DDE-8E25-48FA-AC8C-17B581D3101D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E95EE5A-DB94-421F-B86E-405E6AFD2A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="834" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-285" windowWidth="29040" windowHeight="15840" tabRatio="834" firstSheet="4" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover_sheet" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -57,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="145">
   <si>
     <t>International comparisons of productivity</t>
   </si>
@@ -386,16 +384,10 @@
     <t>Worksheet: Annual hours worked (Component), whole economy index (2019 = 100)</t>
   </si>
   <si>
-    <t>UK [Note 2]</t>
-  </si>
-  <si>
     <t>Worksheet: Annual hours worked (Component), whole economy, in millions</t>
   </si>
   <si>
     <t>Worksheet: Annual output per hour worked, whole economy, chained volume measure (CVM) index (2019 = 100)</t>
-  </si>
-  <si>
-    <t>UK [Note 3]</t>
   </si>
   <si>
     <t>Worksheet: Annual output per hour worked (direct method), whole economy, current price (CP) in GBP</t>
@@ -405,9 +397,6 @@
   </si>
   <si>
     <t>Japan's output per hour worked in 2020 is missing, due to lack of GDP data in that period.</t>
-  </si>
-  <si>
-    <t>UK [Note 4]</t>
   </si>
   <si>
     <t>Worksheet: Annual number of workers, whole economy, index (2019 = 100)</t>
@@ -4468,7 +4457,7 @@
     <tableColumn id="4" xr3:uid="{37899F86-F885-4576-A784-8F525ACC3A5C}" name="Germany" dataDxfId="162"/>
     <tableColumn id="5" xr3:uid="{12EEC9D5-58CF-4E11-A872-A9996BE51F41}" name="Italy" dataDxfId="161"/>
     <tableColumn id="6" xr3:uid="{515DA285-F41B-48D6-B7D4-9FBF76D78AAF}" name="Japan" dataDxfId="160"/>
-    <tableColumn id="7" xr3:uid="{8226469A-845D-4F6C-9CA5-60ECA88DB807}" name="UK [Note 2]" dataDxfId="159"/>
+    <tableColumn id="7" xr3:uid="{8226469A-845D-4F6C-9CA5-60ECA88DB807}" name="UK" dataDxfId="159"/>
     <tableColumn id="8" xr3:uid="{76448D11-1489-40CE-8FA6-312133CAA1AE}" name="US" dataDxfId="158"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4494,7 +4483,7 @@
     <tableColumn id="4" xr3:uid="{B3DCD380-67A1-4357-B5CF-AA22C4830D60}" name="Germany" dataDxfId="152"/>
     <tableColumn id="5" xr3:uid="{252B215B-CDEA-4E1F-99AE-DCC4E7F4062E}" name="Italy" dataDxfId="151"/>
     <tableColumn id="6" xr3:uid="{DE563309-FAE7-4164-B2BB-53E644C6B393}" name="Japan" dataDxfId="150"/>
-    <tableColumn id="7" xr3:uid="{0F15E65E-0186-47EA-A8AB-50D9B928C484}" name="UK [Note 3]" dataDxfId="149"/>
+    <tableColumn id="7" xr3:uid="{0F15E65E-0186-47EA-A8AB-50D9B928C484}" name="UK" dataDxfId="149"/>
     <tableColumn id="8" xr3:uid="{F864E795-E05F-4E14-A3C2-65EC2BFA07B5}" name="US" dataDxfId="148"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4546,7 +4535,7 @@
     <tableColumn id="4" xr3:uid="{06BA7FBE-E9EB-46E8-AC5D-EA0F72DF6CDC}" name="Germany" dataDxfId="132"/>
     <tableColumn id="5" xr3:uid="{09D78D6E-E004-402C-AAC5-45441D99610E}" name="Italy" dataDxfId="131"/>
     <tableColumn id="6" xr3:uid="{A5DA0BEC-1569-40EC-8EA3-55DF1922EBD7}" name="Japan" dataDxfId="130"/>
-    <tableColumn id="7" xr3:uid="{82C95BC3-061F-46C6-A069-049FBC785B61}" name="UK [Note 4]" dataDxfId="129"/>
+    <tableColumn id="7" xr3:uid="{82C95BC3-061F-46C6-A069-049FBC785B61}" name="UK" dataDxfId="129"/>
     <tableColumn id="8" xr3:uid="{80716599-43FE-4519-8790-434268355A87}" name="US" dataDxfId="128"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4702,7 +4691,7 @@
     <tableColumn id="4" xr3:uid="{6BE10F1F-4DF7-416C-AF1C-DE6F0B8940A5}" name="Germany" dataDxfId="72"/>
     <tableColumn id="5" xr3:uid="{F6951552-7061-4F6B-97DF-3873CA2EEBEC}" name="Italy" dataDxfId="71"/>
     <tableColumn id="6" xr3:uid="{81C93AED-6C98-4512-AC24-A7FE9FF5915A}" name="Japan" dataDxfId="70"/>
-    <tableColumn id="7" xr3:uid="{8DE9251C-F3D6-4AD6-AE1D-0420E0A194B1}" name="UK [Note 3]" dataDxfId="69"/>
+    <tableColumn id="7" xr3:uid="{8DE9251C-F3D6-4AD6-AE1D-0420E0A194B1}" name="UK" dataDxfId="69"/>
     <tableColumn id="8" xr3:uid="{FEDAE7FE-0CD8-4127-8E82-16D977463D10}" name="US" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4739,12 +4728,12 @@
   </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{B96F2216-3BC6-46CE-89E2-EE3B279B8CF6}" name="Year" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{10CE4262-417E-4C56-A3CC-007690C390D8}" name="Canada [Note 1]" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{10CE4262-417E-4C56-A3CC-007690C390D8}" name="Canada" dataDxfId="64"/>
     <tableColumn id="3" xr3:uid="{BAFD5D3E-8CB6-4E20-AD28-B3CB97CAA530}" name="France" dataDxfId="63"/>
     <tableColumn id="4" xr3:uid="{8CA742FF-411A-47AC-A695-56ED9E99787F}" name="Germany" dataDxfId="62"/>
     <tableColumn id="5" xr3:uid="{03FFDCD3-7FD5-4FBF-B618-0C9102811604}" name="Italy" dataDxfId="61"/>
     <tableColumn id="6" xr3:uid="{26889526-3619-4F79-94FA-3C31A6761F54}" name="Japan" dataDxfId="60"/>
-    <tableColumn id="7" xr3:uid="{30DDAB7B-738F-460A-B42F-DEDA6F5017D6}" name="UK [Note 3]" dataDxfId="59"/>
+    <tableColumn id="7" xr3:uid="{30DDAB7B-738F-460A-B42F-DEDA6F5017D6}" name="UK" dataDxfId="59"/>
     <tableColumn id="8" xr3:uid="{CE5F4D47-782D-49D2-BCB3-568E44691117}" name="US" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4791,7 +4780,7 @@
   </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{077DF600-BA7A-427B-832A-0B9A80208E8D}" name="Year" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{B0B0E4C6-8CAC-44AF-9ADF-5C4880DDDA78}" name="Canada [Note 1]" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{B0B0E4C6-8CAC-44AF-9ADF-5C4880DDDA78}" name="Canada" dataDxfId="44"/>
     <tableColumn id="3" xr3:uid="{20A481E1-3BDF-4BA7-955D-FDC1030B8FEA}" name="France" dataDxfId="43"/>
     <tableColumn id="4" xr3:uid="{E676C91A-7FF2-4E59-AF9B-A1F6F99BE6F3}" name="Germany" dataDxfId="42"/>
     <tableColumn id="5" xr3:uid="{66893A70-E71E-4D42-B9BB-A57805C0288B}" name="Italy" dataDxfId="41"/>
@@ -5062,7 +5051,7 @@
     <tableColumn id="4" xr3:uid="{BB6FCB63-D81C-4EB0-A4B1-5D21B771A3B2}" name="Germany" dataDxfId="172"/>
     <tableColumn id="5" xr3:uid="{3FFE3433-BF1C-44E4-8DAD-19F924BBC3FC}" name="Italy" dataDxfId="171"/>
     <tableColumn id="6" xr3:uid="{23A55967-C7FB-4339-82AD-02B2971FAF72}" name="Japan" dataDxfId="170"/>
-    <tableColumn id="7" xr3:uid="{D822701B-87DC-47E8-8F23-9AA0965C5BA6}" name="UK [Note 2]" dataDxfId="169"/>
+    <tableColumn id="7" xr3:uid="{D822701B-87DC-47E8-8F23-9AA0965C5BA6}" name="UK" dataDxfId="169"/>
     <tableColumn id="8" xr3:uid="{E0415AAC-49A9-4A51-943D-DAB250DCE995}" name="US" dataDxfId="168"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5432,7 +5421,7 @@
     </row>
     <row r="12" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5447,7 +5436,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E5FF76-6A60-4C44-B186-E6235EC6689E}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5457,7 +5448,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" s="14"/>
     </row>
@@ -5487,7 +5478,7 @@
         <v>99</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>101</v>
@@ -6298,7 +6289,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18287533-6C40-4533-AC86-0F88521DE276}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6308,7 +6301,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="14"/>
     </row>
@@ -6338,7 +6331,7 @@
         <v>99</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>101</v>
@@ -7158,7 +7151,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1" s="14"/>
     </row>
@@ -7861,7 +7854,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF64FD6-C0FE-4972-BBB4-282935E84C08}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7870,7 +7865,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1" s="14"/>
     </row>
@@ -7882,7 +7877,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B3" s="14"/>
     </row>
@@ -7906,7 +7901,7 @@
         <v>99</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>101</v>
@@ -8724,7 +8719,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B1" s="14"/>
     </row>
@@ -9574,7 +9569,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B1" s="14"/>
     </row>
@@ -10425,7 +10420,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B1" s="14"/>
     </row>
@@ -11275,7 +11270,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B1" s="14"/>
     </row>
@@ -11287,7 +11282,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B3" s="14"/>
     </row>
@@ -12129,7 +12124,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B1" s="14"/>
     </row>
@@ -12946,7 +12941,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45A46F4-FF9F-4FCC-A675-9F3B95BAC1B3}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12955,7 +12952,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B1" s="14"/>
     </row>
@@ -12985,7 +12982,7 @@
         <v>99</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>101</v>
@@ -13763,8 +13760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694476B0-5A15-4A55-8915-5DCB1FFFE29C}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13858,7 +13855,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E7" s="43"/>
       <c r="F7" s="43"/>
@@ -13920,7 +13917,7 @@
         <v>35</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>36</v>
@@ -13939,7 +13936,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>36</v>
@@ -13956,10 +13953,10 @@
     </row>
     <row r="14" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>36</v>
@@ -14005,7 +14002,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5346299-2167-481A-BC13-49A6B2B24665}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14014,7 +14013,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B1" s="14"/>
     </row>
@@ -14029,7 +14028,7 @@
         <v>94</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>96</v>
@@ -14044,7 +14043,7 @@
         <v>99</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>101</v>
@@ -14831,7 +14830,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B1" s="14"/>
     </row>
@@ -15639,7 +15638,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C218432F-0236-4B1C-9209-7A6CF71BCC60}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15648,7 +15649,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B1" s="14"/>
     </row>
@@ -15663,7 +15664,7 @@
         <v>94</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>96</v>
@@ -16456,7 +16457,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB265FD-8FF0-447D-8192-3AF48BFC8DC8}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16465,7 +16468,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B1" s="14"/>
     </row>
@@ -17206,7 +17209,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B1" s="14"/>
     </row>
@@ -17218,7 +17221,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B3" s="14"/>
     </row>
@@ -18048,7 +18051,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B1" s="14"/>
     </row>
@@ -18628,7 +18631,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710B06CB-E804-408B-B21B-D7BA335AD7B1}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18637,7 +18642,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B1" s="14"/>
     </row>
@@ -18649,7 +18654,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B3" s="14"/>
     </row>
@@ -19424,7 +19429,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B1" s="14"/>
     </row>
@@ -20005,7 +20010,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="B16:C16"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20031,7 +20036,7 @@
     </row>
     <row r="3" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>42</v>
@@ -20185,7 +20190,7 @@
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>42</v>
@@ -20254,10 +20259,10 @@
         <v>77</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -20265,21 +20270,21 @@
         <v>78</v>
       </c>
       <c r="B24" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="52" t="s">
         <v>142</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="B25" s="52" t="s">
-        <v>143</v>
-      </c>
       <c r="C25" s="52" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -20287,7 +20292,7 @@
         <v>79</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C26" s="34" t="s">
         <v>68</v>
@@ -20298,7 +20303,7 @@
         <v>80</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C27" s="34" t="s">
         <v>68</v>
@@ -23507,7 +23512,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4375C708-1809-4040-A4D4-0F6B9B56C566}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23546,7 +23553,7 @@
         <v>99</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>101</v>
@@ -24354,15 +24361,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010089726FB0C1A31D49973FEF98EF33984E" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f4e0af195c5e211573d49f81b0c4228">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e73541d3-5dbc-467b-ad85-92b29e93bc53" xmlns:ns3="2541d45d-41ad-4814-bf67-1422fc7ee58e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922710726818d139670839816e5ad974" ns2:_="" ns3:_="">
     <xsd:import namespace="e73541d3-5dbc-467b-ad85-92b29e93bc53"/>
@@ -24501,6 +24499,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -24511,14 +24518,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3A01250-7136-4181-BE11-DFAE7A1625A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FAAA7A3-8C96-4B61-8B1B-F2D995A4D01C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24533,6 +24532,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3A01250-7136-4181-BE11-DFAE7A1625A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
